--- a/#DSASheetbyArsh (45-60 Days) (1).xlsx
+++ b/#DSASheetbyArsh (45-60 Days) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roope\Desktop\DSA_45\CrackYourPlacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5BA322-38A9-42A0-B206-B03FF25DB136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7175C-8995-445E-A7B2-26FB7990B3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="326">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1024,6 +1024,12 @@
   </si>
   <si>
     <t>Revise</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1499,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="13.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1527,13 +1533,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="13.8">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="13.2">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="13.2">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="13.2">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="13.2">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1596,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="13.2">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="13.2">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1616,34 +1622,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="13.2">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.2">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.2">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="13.2">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="13.2">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="13.2">
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="13.2">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1700,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="13.2">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1696,7 +1711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="13.2">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="13.2">
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1718,15 +1733,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="13.2">
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="13.2">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="13.2">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
